--- a/data/output/FV2410_FV2404/UTILMD/55186.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55186.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9832" uniqueCount="562">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9853" uniqueCount="562">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1862,6 +1862,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U421" totalsRowShown="0">
+  <autoFilter ref="A1:U421"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2151,7 +2181,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -22829,5 +22862,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55186.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55186.xlsx
@@ -3523,7 +3523,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -5427,7 +5427,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -5629,7 +5629,7 @@
         <v>518</v>
       </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -5853,7 +5853,7 @@
         <v>520</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -6077,7 +6077,7 @@
         <v>521</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -6409,7 +6409,7 @@
         <v>523</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -6571,7 +6571,7 @@
         <v>524</v>
       </c>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -6779,7 +6779,7 @@
         <v>526</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -7183,7 +7183,7 @@
         <v>523</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -7387,7 +7387,7 @@
         <v>528</v>
       </c>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -7695,7 +7695,7 @@
         <v>530</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -8185,7 +8185,7 @@
         <v>534</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -8447,7 +8447,7 @@
         <v>523</v>
       </c>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -8709,7 +8709,7 @@
         <v>523</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -8859,7 +8859,7 @@
         <v>536</v>
       </c>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -9025,7 +9025,7 @@
         <v>538</v>
       </c>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -9191,7 +9191,7 @@
         <v>536</v>
       </c>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -9353,7 +9353,7 @@
         <v>540</v>
       </c>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -9677,7 +9677,7 @@
         <v>523</v>
       </c>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -9881,7 +9881,7 @@
         <v>541</v>
       </c>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -10085,7 +10085,7 @@
         <v>523</v>
       </c>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -10289,7 +10289,7 @@
         <v>542</v>
       </c>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -10601,7 +10601,7 @@
         <v>523</v>
       </c>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -11021,7 +11021,7 @@
         <v>543</v>
       </c>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -11237,7 +11237,7 @@
         <v>523</v>
       </c>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -11499,7 +11499,7 @@
         <v>523</v>
       </c>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -11707,7 +11707,7 @@
         <v>545</v>
       </c>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -11919,7 +11919,7 @@
         <v>546</v>
       </c>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -12069,7 +12069,7 @@
         <v>519</v>
       </c>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -12231,7 +12231,7 @@
         <v>547</v>
       </c>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -12713,7 +12713,7 @@
         <v>547</v>
       </c>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -12979,7 +12979,7 @@
         <v>523</v>
       </c>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -13183,7 +13183,7 @@
         <v>547</v>
       </c>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -13387,7 +13387,7 @@
         <v>523</v>
       </c>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -13591,7 +13591,7 @@
         <v>523</v>
       </c>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -13899,7 +13899,7 @@
         <v>523</v>
       </c>
       <c r="L200" s="4"/>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N200" s="2" t="s">
@@ -14319,7 +14319,7 @@
         <v>543</v>
       </c>
       <c r="L208" s="4"/>
-      <c r="M208" s="2" t="s">
+      <c r="M208" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N208" s="2" t="s">
@@ -14531,7 +14531,7 @@
         <v>523</v>
       </c>
       <c r="L212" s="4"/>
-      <c r="M212" s="2" t="s">
+      <c r="M212" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N212" s="2" t="s">
@@ -14793,7 +14793,7 @@
         <v>523</v>
       </c>
       <c r="L217" s="4"/>
-      <c r="M217" s="2" t="s">
+      <c r="M217" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N217" s="2" t="s">
@@ -15005,7 +15005,7 @@
         <v>545</v>
       </c>
       <c r="L221" s="4"/>
-      <c r="M221" s="2" t="s">
+      <c r="M221" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N221" s="2" t="s">
@@ -15217,7 +15217,7 @@
         <v>549</v>
       </c>
       <c r="L225" s="4"/>
-      <c r="M225" s="2" t="s">
+      <c r="M225" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N225" s="2" t="s">
@@ -15365,7 +15365,7 @@
       </c>
       <c r="K228" s="2"/>
       <c r="L228" s="4"/>
-      <c r="M228" s="2" t="s">
+      <c r="M228" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N228" s="2" t="s">
@@ -15529,7 +15529,7 @@
         <v>519</v>
       </c>
       <c r="L231" s="4"/>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N231" s="2" t="s">
@@ -15749,7 +15749,7 @@
         <v>523</v>
       </c>
       <c r="L235" s="4"/>
-      <c r="M235" s="2" t="s">
+      <c r="M235" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N235" s="2" t="s">
@@ -15903,7 +15903,7 @@
         <v>523</v>
       </c>
       <c r="L238" s="4"/>
-      <c r="M238" s="2" t="s">
+      <c r="M238" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N238" s="2" t="s">
@@ -16007,7 +16007,7 @@
         <v>523</v>
       </c>
       <c r="L240" s="4"/>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N240" s="2" t="s">
@@ -16161,7 +16161,7 @@
         <v>519</v>
       </c>
       <c r="L243" s="4"/>
-      <c r="M243" s="2" t="s">
+      <c r="M243" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N243" s="2" t="s">
@@ -16319,7 +16319,7 @@
         <v>551</v>
       </c>
       <c r="L246" s="4"/>
-      <c r="M246" s="2" t="s">
+      <c r="M246" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N246" s="2" t="s">
@@ -16469,7 +16469,7 @@
         <v>519</v>
       </c>
       <c r="L249" s="4"/>
-      <c r="M249" s="2" t="s">
+      <c r="M249" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N249" s="2" t="s">
@@ -16683,7 +16683,7 @@
       </c>
       <c r="K253" s="2"/>
       <c r="L253" s="4"/>
-      <c r="M253" s="2" t="s">
+      <c r="M253" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N253" s="2" t="s">
@@ -16931,7 +16931,7 @@
         <v>552</v>
       </c>
       <c r="L258" s="4"/>
-      <c r="M258" s="2" t="s">
+      <c r="M258" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N258" s="2" t="s">
@@ -17079,7 +17079,7 @@
       </c>
       <c r="K261" s="2"/>
       <c r="L261" s="4"/>
-      <c r="M261" s="2" t="s">
+      <c r="M261" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N261" s="2" t="s">
@@ -17239,7 +17239,7 @@
         <v>553</v>
       </c>
       <c r="L264" s="4"/>
-      <c r="M264" s="2" t="s">
+      <c r="M264" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N264" s="2" t="s">
@@ -17505,7 +17505,7 @@
         <v>523</v>
       </c>
       <c r="L269" s="4"/>
-      <c r="M269" s="2" t="s">
+      <c r="M269" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N269" s="2" t="s">
@@ -17655,7 +17655,7 @@
         <v>519</v>
       </c>
       <c r="L272" s="4"/>
-      <c r="M272" s="2" t="s">
+      <c r="M272" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N272" s="2" t="s">
@@ -17813,7 +17813,7 @@
         <v>523</v>
       </c>
       <c r="L275" s="4"/>
-      <c r="M275" s="2" t="s">
+      <c r="M275" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N275" s="2" t="s">
@@ -18017,7 +18017,7 @@
         <v>523</v>
       </c>
       <c r="L279" s="4"/>
-      <c r="M279" s="2" t="s">
+      <c r="M279" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N279" s="2" t="s">
@@ -18279,7 +18279,7 @@
         <v>547</v>
       </c>
       <c r="L284" s="4"/>
-      <c r="M284" s="2" t="s">
+      <c r="M284" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N284" s="2" t="s">
@@ -18423,7 +18423,7 @@
       </c>
       <c r="K287" s="2"/>
       <c r="L287" s="4"/>
-      <c r="M287" s="2" t="s">
+      <c r="M287" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N287" s="2" t="s">
@@ -18625,7 +18625,7 @@
         <v>555</v>
       </c>
       <c r="L291" s="4"/>
-      <c r="M291" s="2" t="s">
+      <c r="M291" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N291" s="2" t="s">
@@ -18773,7 +18773,7 @@
       </c>
       <c r="K294" s="2"/>
       <c r="L294" s="4"/>
-      <c r="M294" s="2" t="s">
+      <c r="M294" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N294" s="2" t="s">
@@ -18937,7 +18937,7 @@
         <v>519</v>
       </c>
       <c r="L297" s="4"/>
-      <c r="M297" s="2" t="s">
+      <c r="M297" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N297" s="2" t="s">
@@ -19157,7 +19157,7 @@
         <v>523</v>
       </c>
       <c r="L301" s="4"/>
-      <c r="M301" s="2" t="s">
+      <c r="M301" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N301" s="2" t="s">
@@ -19311,7 +19311,7 @@
         <v>519</v>
       </c>
       <c r="L304" s="4"/>
-      <c r="M304" s="2" t="s">
+      <c r="M304" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N304" s="2" t="s">
@@ -19415,7 +19415,7 @@
         <v>523</v>
       </c>
       <c r="L306" s="4"/>
-      <c r="M306" s="2" t="s">
+      <c r="M306" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N306" s="2" t="s">
@@ -19569,7 +19569,7 @@
         <v>519</v>
       </c>
       <c r="L309" s="4"/>
-      <c r="M309" s="2" t="s">
+      <c r="M309" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N309" s="2" t="s">
@@ -19727,7 +19727,7 @@
         <v>547</v>
       </c>
       <c r="L312" s="4"/>
-      <c r="M312" s="2" t="s">
+      <c r="M312" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N312" s="2" t="s">
@@ -19877,7 +19877,7 @@
         <v>519</v>
       </c>
       <c r="L315" s="4"/>
-      <c r="M315" s="2" t="s">
+      <c r="M315" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N315" s="2" t="s">
@@ -20091,7 +20091,7 @@
       </c>
       <c r="K319" s="2"/>
       <c r="L319" s="4"/>
-      <c r="M319" s="2" t="s">
+      <c r="M319" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N319" s="2" t="s">
@@ -20343,7 +20343,7 @@
         <v>557</v>
       </c>
       <c r="L324" s="4"/>
-      <c r="M324" s="2" t="s">
+      <c r="M324" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N324" s="2" t="s">
@@ -20491,7 +20491,7 @@
       </c>
       <c r="K327" s="2"/>
       <c r="L327" s="4"/>
-      <c r="M327" s="2" t="s">
+      <c r="M327" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N327" s="2" t="s">
@@ -20651,7 +20651,7 @@
         <v>523</v>
       </c>
       <c r="L330" s="4"/>
-      <c r="M330" s="2" t="s">
+      <c r="M330" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N330" s="2" t="s">
@@ -21079,7 +21079,7 @@
         <v>547</v>
       </c>
       <c r="L338" s="4"/>
-      <c r="M338" s="2" t="s">
+      <c r="M338" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N338" s="2" t="s">
@@ -21223,7 +21223,7 @@
       </c>
       <c r="K341" s="2"/>
       <c r="L341" s="4"/>
-      <c r="M341" s="2" t="s">
+      <c r="M341" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N341" s="2" t="s">
@@ -21641,7 +21641,7 @@
         <v>560</v>
       </c>
       <c r="L349" s="4"/>
-      <c r="M349" s="2" t="s">
+      <c r="M349" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N349" s="2" t="s">
@@ -21789,7 +21789,7 @@
       </c>
       <c r="K352" s="2"/>
       <c r="L352" s="4"/>
-      <c r="M352" s="2" t="s">
+      <c r="M352" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N352" s="2" t="s">
@@ -21949,7 +21949,7 @@
         <v>523</v>
       </c>
       <c r="L355" s="4"/>
-      <c r="M355" s="2" t="s">
+      <c r="M355" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N355" s="2" t="s">
@@ -22199,7 +22199,7 @@
         <v>523</v>
       </c>
       <c r="L360" s="4"/>
-      <c r="M360" s="2" t="s">
+      <c r="M360" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N360" s="2" t="s">
@@ -22623,7 +22623,7 @@
         <v>523</v>
       </c>
       <c r="L368" s="4"/>
-      <c r="M368" s="2" t="s">
+      <c r="M368" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N368" s="2" t="s">
@@ -23051,7 +23051,7 @@
         <v>547</v>
       </c>
       <c r="L376" s="4"/>
-      <c r="M376" s="2" t="s">
+      <c r="M376" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N376" s="2" t="s">
@@ -23195,7 +23195,7 @@
       </c>
       <c r="K379" s="2"/>
       <c r="L379" s="4"/>
-      <c r="M379" s="2" t="s">
+      <c r="M379" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N379" s="2" t="s">
@@ -23443,7 +23443,7 @@
         <v>523</v>
       </c>
       <c r="L384" s="4"/>
-      <c r="M384" s="2" t="s">
+      <c r="M384" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N384" s="2" t="s">
@@ -23865,7 +23865,7 @@
       </c>
       <c r="K392" s="2"/>
       <c r="L392" s="4"/>
-      <c r="M392" s="2" t="s">
+      <c r="M392" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N392" s="2" t="s">
@@ -24291,7 +24291,7 @@
         <v>562</v>
       </c>
       <c r="L400" s="4"/>
-      <c r="M400" s="2" t="s">
+      <c r="M400" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N400" s="2" t="s">
@@ -24439,7 +24439,7 @@
       </c>
       <c r="K403" s="2"/>
       <c r="L403" s="4"/>
-      <c r="M403" s="2" t="s">
+      <c r="M403" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N403" s="2" t="s">
@@ -24599,7 +24599,7 @@
         <v>523</v>
       </c>
       <c r="L406" s="4"/>
-      <c r="M406" s="2" t="s">
+      <c r="M406" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N406" s="2" t="s">
@@ -24853,7 +24853,7 @@
         <v>547</v>
       </c>
       <c r="L411" s="4"/>
-      <c r="M411" s="2" t="s">
+      <c r="M411" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N411" s="2" t="s">
@@ -24997,7 +24997,7 @@
       </c>
       <c r="K414" s="2"/>
       <c r="L414" s="4"/>
-      <c r="M414" s="2" t="s">
+      <c r="M414" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N414" s="2" t="s">
@@ -25245,7 +25245,7 @@
       </c>
       <c r="K419" s="2"/>
       <c r="L419" s="4"/>
-      <c r="M419" s="2" t="s">
+      <c r="M419" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N419" s="2"/>
